--- a/importanceOfMeasurements.xlsx
+++ b/importanceOfMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvanson/Documents/Projects/NextGenDetectors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvanson/Documents/Projects/NextGenDetectors/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5BF578-696B-E04D-ACBB-1D333170996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05264AA7-17F4-7342-93A4-D7D7C1387804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{69FE2667-19DC-514C-B0E3-605822E17B64}"/>
+    <workbookView xWindow="15780" yWindow="-19700" windowWidth="22560" windowHeight="15520" xr2:uid="{69FE2667-19DC-514C-B0E3-605822E17B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>High SNR</t>
   </si>
   <si>
-    <t>Large redshift</t>
-  </si>
-  <si>
     <t>High-mass binaries</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
       </rPr>
       <t xml:space="preserve">☉ </t>
     </r>
+  </si>
+  <si>
+    <t>High redshift</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,62 +298,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FFF4FCDB"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFECF9D7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE3F5D2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDBF2CD"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD2EEC9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCAEBC4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC1E7BF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB9E4BB"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB0E0B6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA8DDB1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9FD9AC"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FFF4FCDB"/>
@@ -440,23 +385,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>211666</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>99900</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>88531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72074C6-CE9F-05CC-409E-EDB31FEC560F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D853D4-ECD4-B20B-6639-93F50289A485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,8 +417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1650999" y="10096499"/>
-          <a:ext cx="31686501" cy="21943901"/>
+          <a:off x="1694248" y="10346723"/>
+          <a:ext cx="33611752" cy="22965008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB14584B-0BBF-8549-9243-369B99909F52}">
   <dimension ref="B3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
+      <selection activeCell="AS38" sqref="AS38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="72" x14ac:dyDescent="0.45">
@@ -853,7 +798,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -962,7 +907,7 @@
     </row>
     <row r="9" spans="3:11" ht="109" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -985,7 +930,7 @@
     </row>
     <row r="10" spans="3:11" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
